--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:49:59+00:00</t>
+    <t>2024-04-10T14:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -733,7 +733,7 @@
     <t>Questionnaire.publisher</t>
   </si>
   <si>
-    <t>Nom de l'éditeur: Etablissement ou personne</t>
+    <t>Nom de l'éditeur del a fiche: Etablissement ou personne</t>
   </si>
   <si>
     <t>The name of the organization or individual that published the questionnaire.</t>
@@ -1056,7 +1056,7 @@
     <t>Questionnaire.purpose</t>
   </si>
   <si>
-    <t>Why this questionnaire is defined</t>
+    <t>Pourquoi cette fiche est-il défini</t>
   </si>
   <si>
     <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
@@ -1242,7 +1242,7 @@
     <t>Questionnaire.item.linkId</t>
   </si>
   <si>
-    <t>Unique id for item in questionnaire</t>
+    <t>Unique id pour l'item de la fiche</t>
   </si>
   <si>
     <t>An identifier that is unique within the Questionnaire allowing linkage to the equivalent item in a QuestionnaireResponse resource.</t>
@@ -1322,7 +1322,7 @@
     <t>Questionnaire.item.text</t>
   </si>
   <si>
-    <t>Primary text for the item</t>
+    <t>Texte pour l'item</t>
   </si>
   <si>
     <t>The name of a section, the text of a question or text content for a display item.</t>
@@ -1334,7 +1334,7 @@
     <t>Questionnaire.item.type</t>
   </si>
   <si>
-    <t>group | display | boolean | decimal | integer | date | dateTime +</t>
+    <t>Ti=ype de l'item group | display | boolean | decimal | integer | date | dateTime ...</t>
   </si>
   <si>
     <t>The type of questionnaire item this is - whether text for display, a grouping of other items or a particular type of data to be captured (string, integer, coded choice, etc.).</t>
@@ -1358,7 +1358,7 @@
     <t>Questionnaire.item.enableWhen</t>
   </si>
   <si>
-    <t>Only allow data when</t>
+    <t>Item autorisé / disponible que sous condition</t>
   </si>
   <si>
     <t>A constraint indicating that this item should only be enabled (displayed/allow answers to be captured) when the specified condition is true.</t>
@@ -1477,7 +1477,7 @@
     <t>Questionnaire.item.repeats</t>
   </si>
   <si>
-    <t>Whether the item may repeat</t>
+    <t>Si l'item peut de répeter</t>
   </si>
   <si>
     <t>An indication, if true, that the item may occur multiple times in the response, collecting multiple answers for questions or multiple sets of answers for groups.</t>
@@ -1497,7 +1497,7 @@
     <t>Questionnaire.item.readOnly</t>
   </si>
   <si>
-    <t>Don't allow human editing</t>
+    <t>En lecture seule</t>
   </si>
   <si>
     <t>An indication, when true, that the value cannot be changed by a human respondent to the Questionnaire.</t>
@@ -1556,7 +1556,7 @@
     <t>Questionnaire.item.answerOption</t>
   </si>
   <si>
-    <t>Permitted answer</t>
+    <t>Réponses permises</t>
   </si>
   <si>
     <t>One of the permitted answers for a "choice" or "open-choice" question.</t>
@@ -1593,7 +1593,7 @@
     <t>Questionnaire.item.answerOption.initialSelected</t>
   </si>
   <si>
-    <t>Whether option is selected by default</t>
+    <t>Option de réponse sélectionnée par défaut</t>
   </si>
   <si>
     <t>Indicates whether the answer value is selected when the list of possible answers is initially shown.</t>
@@ -1608,7 +1608,7 @@
     <t>Questionnaire.item.initial</t>
   </si>
   <si>
-    <t>Initial value(s) when item is first rendered</t>
+    <t>Valeur(s) initiale(s)</t>
   </si>
   <si>
     <t>One or more values that should be pre-populated in the answer when initially rendering the questionnaire for user input.</t>
@@ -3942,7 +3942,7 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>
@@ -7557,7 +7557,7 @@
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -9092,7 +9092,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9211,7 +9211,7 @@
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9447,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>88</v>
@@ -10266,7 +10266,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10502,7 +10502,7 @@
         <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>80</v>
@@ -10623,7 +10623,7 @@
         <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10976,7 +10976,7 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11561,7 +11561,7 @@
         <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11680,7 +11680,7 @@
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>

--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:17:45+00:00</t>
+    <t>2024-04-10T15:31:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3942,7 +3942,7 @@
         <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>88</v>

--- a/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
+++ b/sd-add_new-MS-questionnaire/ig/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T15:31:34+00:00</t>
+    <t>2024-04-10T15:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -628,7 +628,7 @@
     <t>Questionnaire.status</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
+    <t>Statut de la fiche</t>
   </si>
   <si>
     <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
